--- a/C语言课程讲义_笔记/B站鹏哥/2024_3_28 P_17操作符.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_3_28 P_17操作符.xlsx
@@ -16,13 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>加、减、乘、除、取模</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按位与、按位亦或、按位或，后面讲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先只讲[]和（），另外的后面讲</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,6 +357,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>237632</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>37904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2466975" y="19211925"/>
+          <a:ext cx="3942857" cy="1571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -643,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="O27:O46"/>
+  <dimension ref="K27:O117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="T81" sqref="T81"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,6 +701,11 @@
     <row r="46" spans="15:15" x14ac:dyDescent="0.15">
       <c r="O46" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K117" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
